--- a/SHERPA_Data.xlsx
+++ b/SHERPA_Data.xlsx
@@ -49,9 +49,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -419,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,10 +431,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
     <col width="17" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="17" customWidth="1" min="8" max="8"/>
@@ -447,7 +450,7 @@
     <col width="12" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="14" customWidth="1" min="20" max="20"/>
-    <col width="12" customWidth="1" min="21" max="21"/>
+    <col width="16" customWidth="1" min="21" max="21"/>
     <col width="12" customWidth="1" min="22" max="22"/>
     <col width="12" customWidth="1" min="23" max="23"/>
     <col width="12" customWidth="1" min="24" max="24"/>
@@ -455,9 +458,9 @@
     <col width="12" customWidth="1" min="26" max="26"/>
     <col width="20" customWidth="1" min="27" max="27"/>
     <col width="12" customWidth="1" min="28" max="28"/>
-    <col width="14" customWidth="1" min="29" max="29"/>
-    <col width="16" customWidth="1" min="30" max="30"/>
-    <col width="13" customWidth="1" min="31" max="31"/>
+    <col width="60" customWidth="1" min="29" max="29"/>
+    <col width="60" customWidth="1" min="30" max="30"/>
+    <col width="60" customWidth="1" min="31" max="31"/>
     <col width="18" customWidth="1" min="32" max="32"/>
     <col width="15" customWidth="1" min="33" max="33"/>
     <col width="13" customWidth="1" min="34" max="34"/>
@@ -603,6 +606,1330 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="2" t="n"/>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
+      <c r="W2" s="2" t="n"/>
+      <c r="X2" s="2" t="n"/>
+      <c r="Y2" s="2" t="n"/>
+      <c r="Z2" s="2" t="n"/>
+      <c r="AA2" s="2" t="n"/>
+      <c r="AB2" s="2" t="n"/>
+      <c r="AC2" s="2" t="n"/>
+      <c r="AD2" s="2" t="n"/>
+      <c r="AE2" s="2" t="n"/>
+      <c r="AF2" s="2" t="n"/>
+      <c r="AG2" s="2" t="n"/>
+      <c r="AH2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>L2-M1-T1-NO-RN</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>Mach1</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>L2-M1-T1-NO-RN</t>
+        </is>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="X3" s="2" t="inlineStr"/>
+      <c r="Y3" s="2" t="inlineStr"/>
+      <c r="Z3" s="2" t="inlineStr"/>
+      <c r="AA3" s="2" t="inlineStr">
+        <is>
+          <t>Normal operations</t>
+        </is>
+      </c>
+      <c r="AB3" s="2" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="AC3" s="2" t="inlineStr"/>
+      <c r="AD3" s="2" t="inlineStr"/>
+      <c r="AE3" s="2" t="inlineStr"/>
+      <c r="AF3" s="2" t="inlineStr"/>
+      <c r="AG3" s="2" t="inlineStr"/>
+      <c r="AH3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>L2-M1-T1-S1-NO-RN</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>T1S1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>- Pinch / entrapment: Nips, rollers, moving parts.
+- Cut / laceration: Blades, sharp edges, cutters.
+- Custom Title</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>- Emergency stop accessible: E-stops reachable, tested, labelled.
+- Spill containment / bunding: Contain CIP/product spills.; - LOTO procedure &amp; permits: Isolation, lock, verify, permit.
+- SOP / SWMS in place: Documented method and critical steps.
+- Training / competency verified: Operator trained, assessed, signed off.</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>Mach1</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>L2-M1-T1-NO-RN</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2" t="inlineStr">
+        <is>
+          <t>T1S1</t>
+        </is>
+      </c>
+      <c r="AA4" s="2" t="inlineStr">
+        <is>
+          <t>Normal operations</t>
+        </is>
+      </c>
+      <c r="AB4" s="2" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="AC4" s="2" t="inlineStr">
+        <is>
+          <t>- Emergency stop accessible: E-stops reachable, tested, labelled.
+- Spill containment / bunding: Contain CIP/product spills.</t>
+        </is>
+      </c>
+      <c r="AD4" s="2" t="inlineStr">
+        <is>
+          <t>- LOTO procedure &amp; permits: Isolation, lock, verify, permit.
+- SOP / SWMS in place: Documented method and critical steps.
+- Training / competency verified: Operator trained, assessed, signed off.</t>
+        </is>
+      </c>
+      <c r="AE4" s="2" t="inlineStr">
+        <is>
+          <t>- Pinch / entrapment: Nips, rollers, moving parts.
+- Cut / laceration: Blades, sharp edges, cutters.
+- Custom Title</t>
+        </is>
+      </c>
+      <c r="AF4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>L2-M1-T1-S2-NO-RN</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>T1S2</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>- Slip / trip / fall: Wet floors, product, CIP spills.</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>- Fixed guarding / interlocks: Guarding prevents access to hazard zones.; - Training / competency verified: Operator trained, assessed, signed off.</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>Mach1</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>L2-M1-T1-NO-RN</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="2" t="inlineStr">
+        <is>
+          <t>T1S2</t>
+        </is>
+      </c>
+      <c r="AA5" s="2" t="inlineStr">
+        <is>
+          <t>Normal operations</t>
+        </is>
+      </c>
+      <c r="AB5" s="2" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="AC5" s="2" t="inlineStr">
+        <is>
+          <t>- Fixed guarding / interlocks: Guarding prevents access to hazard zones.</t>
+        </is>
+      </c>
+      <c r="AD5" s="2" t="inlineStr">
+        <is>
+          <t>- Training / competency verified: Operator trained, assessed, signed off.</t>
+        </is>
+      </c>
+      <c r="AE5" s="2" t="inlineStr">
+        <is>
+          <t>- Slip / trip / fall: Wet floors, product, CIP spills.</t>
+        </is>
+      </c>
+      <c r="AF5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>L2-M1-T1-S3-NO-RN</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>test desc</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>- Manual handling / strain: Lifting, awkward postures.</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>- Emergency stop accessible: E-stops reachable, tested, labelled.
+- ujfbnj: dd; - Training / competency verified: Operator trained, assessed, signed off.</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>Mach1</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>L2-M1-T1-NO-RN</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="2" t="inlineStr">
+        <is>
+          <t>test desc</t>
+        </is>
+      </c>
+      <c r="AA6" s="2" t="inlineStr">
+        <is>
+          <t>Normal operations</t>
+        </is>
+      </c>
+      <c r="AB6" s="2" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="AC6" s="2" t="inlineStr">
+        <is>
+          <t>- Emergency stop accessible: E-stops reachable, tested, labelled.
+- ujfbnj: dd</t>
+        </is>
+      </c>
+      <c r="AD6" s="2" t="inlineStr">
+        <is>
+          <t>- Training / competency verified: Operator trained, assessed, signed off.</t>
+        </is>
+      </c>
+      <c r="AE6" s="2" t="inlineStr">
+        <is>
+          <t>- Manual handling / strain: Lifting, awkward postures.</t>
+        </is>
+      </c>
+      <c r="AF6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH6" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="n"/>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="2" t="n"/>
+      <c r="V7" s="2" t="n"/>
+      <c r="W7" s="2" t="n"/>
+      <c r="X7" s="2" t="n"/>
+      <c r="Y7" s="2" t="n"/>
+      <c r="Z7" s="2" t="n"/>
+      <c r="AA7" s="2" t="n"/>
+      <c r="AB7" s="2" t="n"/>
+      <c r="AC7" s="2" t="n"/>
+      <c r="AD7" s="2" t="n"/>
+      <c r="AE7" s="2" t="n"/>
+      <c r="AF7" s="2" t="n"/>
+      <c r="AG7" s="2" t="n"/>
+      <c r="AH7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>L2-M1-T2-NO-RN</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>Mach1</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>L2-M1-T2-NO-RN</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="X8" s="2" t="inlineStr"/>
+      <c r="Y8" s="2" t="inlineStr"/>
+      <c r="Z8" s="2" t="inlineStr"/>
+      <c r="AA8" s="2" t="inlineStr">
+        <is>
+          <t>Normal operations</t>
+        </is>
+      </c>
+      <c r="AB8" s="2" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="AC8" s="2" t="inlineStr"/>
+      <c r="AD8" s="2" t="inlineStr"/>
+      <c r="AE8" s="2" t="inlineStr"/>
+      <c r="AF8" s="2" t="inlineStr"/>
+      <c r="AG8" s="2" t="inlineStr"/>
+      <c r="AH8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>L2-M1-T2-S1-NO-RN</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>T2S1</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>- Pinch / entrapment: Nips, rollers, moving parts.</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>- Emergency stop accessible: E-stops reachable, tested, labelled.; - LOTO procedure &amp; permits: Isolation, lock, verify, permit.</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>Mach1</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>L2-M1-T2-NO-RN</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2" t="inlineStr">
+        <is>
+          <t>T2S1</t>
+        </is>
+      </c>
+      <c r="AA9" s="2" t="inlineStr">
+        <is>
+          <t>Normal operations</t>
+        </is>
+      </c>
+      <c r="AB9" s="2" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="AC9" s="2" t="inlineStr">
+        <is>
+          <t>- Emergency stop accessible: E-stops reachable, tested, labelled.</t>
+        </is>
+      </c>
+      <c r="AD9" s="2" t="inlineStr">
+        <is>
+          <t>- LOTO procedure &amp; permits: Isolation, lock, verify, permit.</t>
+        </is>
+      </c>
+      <c r="AE9" s="2" t="inlineStr">
+        <is>
+          <t>- Pinch / entrapment: Nips, rollers, moving parts.</t>
+        </is>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="2" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="n"/>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="2" t="n"/>
+      <c r="V10" s="2" t="n"/>
+      <c r="W10" s="2" t="n"/>
+      <c r="X10" s="2" t="n"/>
+      <c r="Y10" s="2" t="n"/>
+      <c r="Z10" s="2" t="n"/>
+      <c r="AA10" s="2" t="n"/>
+      <c r="AB10" s="2" t="n"/>
+      <c r="AC10" s="2" t="n"/>
+      <c r="AD10" s="2" t="n"/>
+      <c r="AE10" s="2" t="n"/>
+      <c r="AF10" s="2" t="n"/>
+      <c r="AG10" s="2" t="n"/>
+      <c r="AH10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="n"/>
+      <c r="W11" s="2" t="n"/>
+      <c r="X11" s="2" t="n"/>
+      <c r="Y11" s="2" t="n"/>
+      <c r="Z11" s="2" t="n"/>
+      <c r="AA11" s="2" t="n"/>
+      <c r="AB11" s="2" t="n"/>
+      <c r="AC11" s="2" t="n"/>
+      <c r="AD11" s="2" t="n"/>
+      <c r="AE11" s="2" t="n"/>
+      <c r="AF11" s="2" t="n"/>
+      <c r="AG11" s="2" t="n"/>
+      <c r="AH11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>L2-M2-T1-NO-RN</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr"/>
+      <c r="H12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="inlineStr"/>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>Mach2</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>L2-M2-T1-NO-RN</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="X12" s="2" t="inlineStr"/>
+      <c r="Y12" s="2" t="inlineStr"/>
+      <c r="Z12" s="2" t="inlineStr"/>
+      <c r="AA12" s="2" t="inlineStr">
+        <is>
+          <t>Normal operations</t>
+        </is>
+      </c>
+      <c r="AB12" s="2" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="AC12" s="2" t="inlineStr"/>
+      <c r="AD12" s="2" t="inlineStr"/>
+      <c r="AE12" s="2" t="inlineStr"/>
+      <c r="AF12" s="2" t="inlineStr"/>
+      <c r="AG12" s="2" t="inlineStr"/>
+      <c r="AH12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>L2-M2-T1-S1-NO-RN</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>TestS1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>- Pinch / entrapment: Nips, rollers, moving parts.</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>- Emergency stop accessible: E-stops reachable, tested, labelled.; - Training / competency verified: Operator trained, assessed, signed off.</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr"/>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>Mach2</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>L2-M2-T1-NO-RN</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="X13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="2" t="inlineStr">
+        <is>
+          <t>TestS1</t>
+        </is>
+      </c>
+      <c r="AA13" s="2" t="inlineStr">
+        <is>
+          <t>Normal operations</t>
+        </is>
+      </c>
+      <c r="AB13" s="2" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="AC13" s="2" t="inlineStr">
+        <is>
+          <t>- Emergency stop accessible: E-stops reachable, tested, labelled.</t>
+        </is>
+      </c>
+      <c r="AD13" s="2" t="inlineStr">
+        <is>
+          <t>- Training / competency verified: Operator trained, assessed, signed off.</t>
+        </is>
+      </c>
+      <c r="AE13" s="2" t="inlineStr">
+        <is>
+          <t>- Pinch / entrapment: Nips, rollers, moving parts.</t>
+        </is>
+      </c>
+      <c r="AF13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH13" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="2" t="n"/>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="2" t="n"/>
+      <c r="V14" s="2" t="n"/>
+      <c r="W14" s="2" t="n"/>
+      <c r="X14" s="2" t="n"/>
+      <c r="Y14" s="2" t="n"/>
+      <c r="Z14" s="2" t="n"/>
+      <c r="AA14" s="2" t="n"/>
+      <c r="AB14" s="2" t="n"/>
+      <c r="AC14" s="2" t="n"/>
+      <c r="AD14" s="2" t="n"/>
+      <c r="AE14" s="2" t="n"/>
+      <c r="AF14" s="2" t="n"/>
+      <c r="AG14" s="2" t="n"/>
+      <c r="AH14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="2" t="n"/>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="2" t="n"/>
+      <c r="V15" s="2" t="n"/>
+      <c r="W15" s="2" t="n"/>
+      <c r="X15" s="2" t="n"/>
+      <c r="Y15" s="2" t="n"/>
+      <c r="Z15" s="2" t="n"/>
+      <c r="AA15" s="2" t="n"/>
+      <c r="AB15" s="2" t="n"/>
+      <c r="AC15" s="2" t="n"/>
+      <c r="AD15" s="2" t="n"/>
+      <c r="AE15" s="2" t="n"/>
+      <c r="AF15" s="2" t="n"/>
+      <c r="AG15" s="2" t="n"/>
+      <c r="AH15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="n"/>
+      <c r="W16" s="2" t="n"/>
+      <c r="X16" s="2" t="n"/>
+      <c r="Y16" s="2" t="n"/>
+      <c r="Z16" s="2" t="n"/>
+      <c r="AA16" s="2" t="n"/>
+      <c r="AB16" s="2" t="n"/>
+      <c r="AC16" s="2" t="n"/>
+      <c r="AD16" s="2" t="n"/>
+      <c r="AE16" s="2" t="n"/>
+      <c r="AF16" s="2" t="n"/>
+      <c r="AG16" s="2" t="n"/>
+      <c r="AH16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>L3-M1-T1-NO-RN</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr"/>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>L3</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>L3-M1-T1-NO-RN</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="X17" s="2" t="inlineStr"/>
+      <c r="Y17" s="2" t="inlineStr"/>
+      <c r="Z17" s="2" t="inlineStr"/>
+      <c r="AA17" s="2" t="inlineStr">
+        <is>
+          <t>Normal operations</t>
+        </is>
+      </c>
+      <c r="AB17" s="2" t="inlineStr">
+        <is>
+          <t>Startup</t>
+        </is>
+      </c>
+      <c r="AC17" s="2" t="inlineStr"/>
+      <c r="AD17" s="2" t="inlineStr"/>
+      <c r="AE17" s="2" t="inlineStr"/>
+      <c r="AF17" s="2" t="inlineStr"/>
+      <c r="AG17" s="2" t="inlineStr"/>
+      <c r="AH17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>L3-M1-T1-S1-NO-RN</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>S1Test</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>- Slip / trip / fall: Wet floors, product, CIP spills.
+- None: None</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>- Emergency stop accessible: E-stops reachable, tested, labelled.
+- None: None</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr"/>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>L3</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>L3-M1-T1-NO-RN</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="X18" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="2" t="inlineStr">
+        <is>
+          <t>S1Test</t>
+        </is>
+      </c>
+      <c r="AA18" s="2" t="inlineStr">
+        <is>
+          <t>Normal operations</t>
+        </is>
+      </c>
+      <c r="AB18" s="2" t="inlineStr">
+        <is>
+          <t>Startup</t>
+        </is>
+      </c>
+      <c r="AC18" s="2" t="inlineStr">
+        <is>
+          <t>- Emergency stop accessible: E-stops reachable, tested, labelled.
+- None: None</t>
+        </is>
+      </c>
+      <c r="AD18" s="2" t="inlineStr"/>
+      <c r="AE18" s="2" t="inlineStr">
+        <is>
+          <t>- Slip / trip / fall: Wet floors, product, CIP spills.
+- None: None</t>
+        </is>
+      </c>
+      <c r="AF18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH18" s="2" t="inlineStr">
+        <is>
+          <t>M+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
